--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>111.97536703297</v>
+        <v>58.24604458051699</v>
       </c>
       <c r="R2">
-        <v>1007.77830329673</v>
+        <v>524.2144012246529</v>
       </c>
       <c r="S2">
-        <v>0.007241333513152736</v>
+        <v>0.008048260203326985</v>
       </c>
       <c r="T2">
-        <v>0.007241333513152734</v>
+        <v>0.008048260203326985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>1292.012202814195</v>
+        <v>239.9084474435929</v>
       </c>
       <c r="R3">
-        <v>11628.10982532776</v>
+        <v>2159.176026992337</v>
       </c>
       <c r="S3">
-        <v>0.08355311986506794</v>
+        <v>0.03314981513179165</v>
       </c>
       <c r="T3">
-        <v>0.08355311986506793</v>
+        <v>0.03314981513179165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>1521.85068283354</v>
+        <v>310.630427232908</v>
       </c>
       <c r="R4">
-        <v>13696.65614550186</v>
+        <v>2795.673845096172</v>
       </c>
       <c r="S4">
-        <v>0.0984165414556944</v>
+        <v>0.04292196188507059</v>
       </c>
       <c r="T4">
-        <v>0.09841654145569438</v>
+        <v>0.04292196188507059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>149.26693771651</v>
+        <v>14.710497474994</v>
       </c>
       <c r="R5">
-        <v>1343.40243944859</v>
+        <v>132.394477274946</v>
       </c>
       <c r="S5">
-        <v>0.00965294159896782</v>
+        <v>0.002032651525984281</v>
       </c>
       <c r="T5">
-        <v>0.009652941598967818</v>
+        <v>0.002032651525984281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>121.4019002796989</v>
+        <v>340.0873700087705</v>
       </c>
       <c r="R6">
-        <v>1092.61710251729</v>
+        <v>3060.786330078934</v>
       </c>
       <c r="S6">
-        <v>0.007850937865619717</v>
+        <v>0.04699223209761572</v>
       </c>
       <c r="T6">
-        <v>0.007850937865619715</v>
+        <v>0.04699223209761573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
         <v>1400.778945962457</v>
@@ -883,10 +883,10 @@
         <v>12607.01051366211</v>
       </c>
       <c r="S7">
-        <v>0.09058695492313103</v>
+        <v>0.1935553482754262</v>
       </c>
       <c r="T7">
-        <v>0.09058695492313103</v>
+        <v>0.1935553482754262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>1649.966146425309</v>
+        <v>1813.710884630216</v>
       </c>
       <c r="R8">
-        <v>14849.69531782778</v>
+        <v>16323.39796167194</v>
       </c>
       <c r="S8">
-        <v>0.1067016386573585</v>
+        <v>0.2506130199610677</v>
       </c>
       <c r="T8">
-        <v>0.1067016386573585</v>
+        <v>0.2506130199610678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>161.8328241994522</v>
+        <v>85.89174481840777</v>
       </c>
       <c r="R9">
-        <v>1456.49541779507</v>
+        <v>773.02570336567</v>
       </c>
       <c r="S9">
-        <v>0.01046556474388335</v>
+        <v>0.01186825846449902</v>
       </c>
       <c r="T9">
-        <v>0.01046556474388334</v>
+        <v>0.01186825846449902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>36.51808456065778</v>
+        <v>107.6246368325781</v>
       </c>
       <c r="R10">
-        <v>328.66276104592</v>
+        <v>968.6217314932028</v>
       </c>
       <c r="S10">
-        <v>0.002361587522078629</v>
+        <v>0.0148712429789077</v>
       </c>
       <c r="T10">
-        <v>0.002361587522078629</v>
+        <v>0.0148712429789077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>421.3588410197244</v>
+        <v>443.2929259855874</v>
       </c>
       <c r="R11">
-        <v>3792.22956917752</v>
+        <v>3989.636333870286</v>
       </c>
       <c r="S11">
-        <v>0.02724884925486273</v>
+        <v>0.06125286000655859</v>
       </c>
       <c r="T11">
-        <v>0.02724884925486273</v>
+        <v>0.06125286000655859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>496.3151574939377</v>
+        <v>573.9700809018192</v>
       </c>
       <c r="R12">
-        <v>4466.836417445439</v>
+        <v>5165.730728116372</v>
       </c>
       <c r="S12">
-        <v>0.03209619828250545</v>
+        <v>0.07930942939201176</v>
       </c>
       <c r="T12">
-        <v>0.03209619828250545</v>
+        <v>0.07930942939201176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>48.67983734348444</v>
+        <v>27.18144999844955</v>
       </c>
       <c r="R13">
-        <v>438.11853609136</v>
+        <v>244.633049986046</v>
       </c>
       <c r="S13">
-        <v>0.003148075750146064</v>
+        <v>0.003755849583722964</v>
       </c>
       <c r="T13">
-        <v>0.003148075750146064</v>
+        <v>0.003755849583722964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N14">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q14">
-        <v>293.1799298571142</v>
+        <v>170.1211914689027</v>
       </c>
       <c r="R14">
-        <v>2638.619368714028</v>
+        <v>1531.090723220124</v>
       </c>
       <c r="S14">
-        <v>0.01895964896308837</v>
+        <v>0.02350682565489989</v>
       </c>
       <c r="T14">
-        <v>0.01895964896308837</v>
+        <v>0.02350682565489989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.705039</v>
       </c>
       <c r="O15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q15">
-        <v>3382.815855241357</v>
+        <v>700.7087127803106</v>
       </c>
       <c r="R15">
-        <v>30445.34269717221</v>
+        <v>6306.378415022796</v>
       </c>
       <c r="S15">
-        <v>0.2187632733025206</v>
+        <v>0.09682178571625503</v>
       </c>
       <c r="T15">
-        <v>0.2187632733025206</v>
+        <v>0.09682178571625503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N16">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q16">
-        <v>3984.591328151365</v>
+        <v>907.2687899743307</v>
       </c>
       <c r="R16">
-        <v>35861.32195336229</v>
+        <v>8165.419109768976</v>
       </c>
       <c r="S16">
-        <v>0.2576794833122946</v>
+        <v>0.1253636250952137</v>
       </c>
       <c r="T16">
-        <v>0.2576794833122946</v>
+        <v>0.1253636250952137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N17">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O17">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P17">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q17">
-        <v>390.8187263795915</v>
+        <v>42.96544727748533</v>
       </c>
       <c r="R17">
-        <v>3517.368537416324</v>
+        <v>386.6890254973679</v>
       </c>
       <c r="S17">
-        <v>0.02527385098962816</v>
+        <v>0.005936834027648229</v>
       </c>
       <c r="T17">
-        <v>0.02527385098962815</v>
+        <v>0.005936834027648229</v>
       </c>
     </row>
   </sheetData>
